--- a/DateBase/orders/Dang Nguyen_2025-8-23.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-8-23.xlsx
@@ -750,6 +750,9 @@
       <c r="C37" t="str">
         <v>721_银扇干花_undefined_undefined_1bunch</v>
       </c>
+      <c r="F37" t="str">
+        <v>5</v>
+      </c>
     </row>
     <row r="38">
       <c r="C38" t="str">
@@ -816,7 +819,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>035101021015151520151510152310351010105101010555555555500</v>
+        <v>035101021015151520151510152310351010105101010555555555550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-8-23.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-8-23.xlsx
@@ -758,6 +758,9 @@
       <c r="C38" t="str">
         <v>637_干花小盼草红_undefined_undefined_1bunch</v>
       </c>
+      <c r="F38" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -819,7 +822,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>035101021015151520151510152310351010105101010555555555550</v>
+        <v>035101021015151520151510152310351010105101010555555555555</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-8-23.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-8-23.xlsx
@@ -824,6 +824,9 @@
       <c r="G2" t="str">
         <v>035101021015151520151510152310351010105101010555555555555</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen_2025-8-23.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-8-23.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -446,210 +446,200 @@
         <v>1</v>
       </c>
       <c r="C2" t="str">
-        <v>540_糖棉_gomphocarpus fruticosus_undefined_1bunch</v>
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F2" t="str">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" t="str">
-        <v>328_卢荀草_undefined_undefined_1bunch</v>
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F3" t="str">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" t="str">
-        <v>328_卢荀草_undefined_undefined_1bunch</v>
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
       </c>
       <c r="F4" t="str">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>2</v>
-      </c>
       <c r="C5" t="str">
-        <v>688_山归来橙_undefined_undefined_1bunch</v>
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F5" t="str">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="str">
-        <v>540_糖棉_gomphocarpus fruticosus_undefined_1bunch</v>
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
       <c r="F6" t="str">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="C7" t="str">
-        <v>699_火焰兰果_undefined_undefined_1bunch</v>
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
       </c>
       <c r="F7" t="str">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
-        <v>3</v>
-      </c>
       <c r="C8" t="str">
-        <v>478_绿芯向日葵_sunflower mini_undefined_1bunch</v>
+        <v>326_红继木_undefined_undefined_1bunch</v>
       </c>
       <c r="F8" t="str">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="str">
-        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
       </c>
       <c r="F9" t="str">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" t="str">
-        <v>118_绣球老绿_Hydrangea Garden Lace_Hydrangea L._1stem</v>
+        <v>479_绿灵草_lepidium_undefined_1bunch</v>
       </c>
       <c r="F10" t="str">
         <v>15</v>
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="str">
+        <v>2</v>
+      </c>
       <c r="C11" t="str">
-        <v>106_绣球单瓣粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+        <v>147_娜欧米_Red Naomi_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F11" t="str">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="str">
-        <v>111_绣球单瓣紫粉_Hydrangea Purple&amp;Pink S_Hydrangea L._1stem</v>
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F12" t="str">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="str">
-        <v>105_绣球莫奈蓝_Hydrangea Monet Blue_Hydrangea L._1stem</v>
+        <v>183_耐心_patience_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F13" t="str">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" t="str">
-        <v>439_九星叶_undefined_undefined_1bunch</v>
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F14" t="str">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="C15" t="str">
-        <v>317_尤加利叶细叶_Eucalyptus Parvifolia_undefined_1bunch</v>
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
       </c>
       <c r="F15" t="str">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
+      <c r="C16" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F16" t="str">
         <v>4</v>
-      </c>
-      <c r="C16" t="str">
-        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
-      </c>
-      <c r="F16" t="str">
-        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="str">
-        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+        <v>47_拉丝玫红_Spider Dark Pink_Gerbera L._20stems</v>
       </c>
       <c r="F17" t="str">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" t="str">
-        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+        <v>743_永生吊米红_undefined_undefined_1bunch</v>
       </c>
       <c r="F18" t="str">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
+        <v>3</v>
+      </c>
+      <c r="C19" t="str">
+        <v>70_朝霞mini_undefined_Gerbera L._20stems</v>
+      </c>
+      <c r="F19" t="str">
         <v>5</v>
       </c>
-      <c r="C19" t="str">
-        <v>115_绣球冰淇淋绿_Hydrangea Pointed Green_Hydrangea L._1stem</v>
-      </c>
-      <c r="F19" t="str">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" xml:space="preserve">
-      <c r="C20" t="str" xml:space="preserve">
-        <v xml:space="preserve">507_风铃花深紫色_Canterbury Bells
-deep purple_undefined_1bunch</v>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>734_乒乓菊红_undefined_undefined_1bunch</v>
       </c>
       <c r="F20" t="str">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="str">
-        <v>6</v>
-      </c>
       <c r="C21" t="str">
-        <v>547_粉菠萝_undefined_undefined_1bunch</v>
+        <v>314_松虫草花边黑_scabiosa_undefined_1bunch</v>
       </c>
       <c r="F21" t="str">
         <v>10</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="str">
-        <v>7</v>
-      </c>
       <c r="C22" t="str">
-        <v>604_康乃馨粉佳人_pink_undefined_20stems</v>
+        <v>468_水仙百合_Alstroemeria_undefined_1bunch</v>
       </c>
       <c r="F22" t="str">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" t="str">
-        <v>608_康乃馨笑颜_undefined_undefined_20stems</v>
+        <v>745_海芋红_Calla Lily_undefined_1bunch</v>
       </c>
       <c r="F23" t="str">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" t="str">
-        <v>602_康乃馨白_white_undefined_20stems</v>
+        <v>810_鸡冠花红_undefined_undefined_1bunch</v>
       </c>
       <c r="F24" t="str">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="str">
+        <v>4</v>
+      </c>
       <c r="C25" t="str">
-        <v>632_吸色康乃馨紫_tinted purple_undefined_20stems</v>
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
       </c>
       <c r="F25" t="str">
         <v>10</v>
@@ -657,114 +647,15 @@
     </row>
     <row r="26">
       <c r="C26" t="str">
-        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
       </c>
       <c r="F26" t="str">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="str">
-        <v>412_紫罗兰粉_violet pink_undefined_1bunch</v>
-      </c>
-      <c r="F27" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="C28" t="str">
-        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
-      </c>
-      <c r="F28" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="C29" t="str">
-        <v>576_迷你菊紫_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F29" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="C30" t="str">
-        <v>576_迷你菊紫_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F30" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="C31" t="str">
-        <v>41_拉丝白_Spider White_Gerbera L._20stems</v>
-      </c>
-      <c r="F31" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="C32" t="str">
-        <v>46_拉丝橙_Spider orange_Gerbera L._20stems</v>
-      </c>
-      <c r="F32" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="C33" t="str">
-        <v>77_珍爱mini_undefined_Gerbera L._20stems</v>
-      </c>
-      <c r="F33" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="C34" t="str">
-        <v>78_玉镜_undefined_Gerbera L._20stems</v>
-      </c>
-      <c r="F34" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="C35" t="str">
-        <v>48_香格里拉_undefined_Gerbera L._10stems</v>
-      </c>
-      <c r="F35" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="C36" t="str">
-        <v>598_梦幻芭蕉_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F36" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>8</v>
-      </c>
-      <c r="C37" t="str">
-        <v>721_银扇干花_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F37" t="str">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="C38" t="str">
-        <v>637_干花小盼草红_undefined_undefined_1bunch</v>
-      </c>
-      <c r="F38" t="str">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L38"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L26"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -822,10 +713,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>035101021015151520151510152310351010105101010555555555555</v>
-      </c>
-      <c r="H2" t="str">
-        <v>CNY</v>
+        <v>01010551015510158957104105581053121016</v>
       </c>
     </row>
   </sheetData>
